--- a/ann_bert.xlsx
+++ b/ann_bert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Sentence</t>
   </si>
@@ -26,104 +26,6 @@
   </si>
   <si>
     <t>Confidence</t>
-  </si>
-  <si>
-    <t>We traveled to a ceremony at the President's house, and after I left, I received a phone call from him [Netanyahu] saying that I'm fired," she said.</t>
-  </si>
-  <si>
-    <t>yet there is an increasing focus on what could and should happen if and when the guns fall silent in gaza.</t>
-  </si>
-  <si>
-    <t>&amp;nbsp;
-Deciding to develop Iron Dome
-&amp;nbsp;
-In 1996, Israel and the United States agreed to collaborate on Project THEL (Tactical High-Energy Laser), mistakenly dubbed Nautilus (America&amp;rsquo;s earlier adventure in this technological field).</t>
-  </si>
-  <si>
-    <t>but our group brings together women from these three different faiths," ms mirza said.</t>
-  </si>
-  <si>
-    <t>The intifada ended with the signing of the Oslo Accords, which many hoped would lead to a lasting peace.</t>
-  </si>
-  <si>
-    <t>around tel aviv and close to andrey's home in central israel, there are many posters plastered up of those who are still missing."it is very sad to look at these portraits," she says.</t>
-  </si>
-  <si>
-    <t>He was far more effective than many who have held that position,&amp;rdquo; said Shapiro.</t>
-  </si>
-  <si>
-    <t>&amp;nbsp;
-PA Security Forces
-The US-trained Palestinian security forces, which cooperate with the IDF, are considered an essential pillar of stability in the West Bank.</t>
-  </si>
-  <si>
-    <t>the proposal includes a 40-day truce in return for the release of hostages and the prospect of displaced families being allowed back to northern gaza.</t>
-  </si>
-  <si>
-    <t>he just embodied what it meant to be a royal marine commando - courage, determination, unselfishness."andrew campbell was also deployed to afghanistan with mr henderson.</t>
-  </si>
-  <si>
-    <t>she said hospital officials then fired her because she made pro-palestinian remarks in an acceptance speech.</t>
-  </si>
-  <si>
-    <t>hamas has denied that its fighters were based there and claims that those killed were wounded patients and displaced people.</t>
-  </si>
-  <si>
-    <t>mr kirby's family said he would be "remembered as a hero" and they were "incredibly proud" of what he achieved.</t>
-  </si>
-  <si>
-    <t>Moscow supports holding an international peace conference and achieving peace and stability in the region on the basis of UN resolutions and international law, Putin reportedly told Abbas during a phone conversation, according to a statement published by WAFA, the PA&amp;rsquo;s official news agency.</t>
-  </si>
-  <si>
-    <t>like every child in gaza, she could be killed at any minute.</t>
-  </si>
-  <si>
-    <t>palestinian media and local health officials said at least 18 people, including nine children, were killed in a strike on a residential building on the outskirts of rafah.</t>
-  </si>
-  <si>
-    <t>They have achieved what Nasrallah did in 2000; they managed to enter, kill, and massacre, and we did nothing."Does witnessing the ongoing events in Gaza not make them think twice?"Their concern is not for the residents.</t>
-  </si>
-  <si>
-    <t>These results remained similar to last week's, with 45% of respondents supporting a Gantz premiership, while support for Netanyahu as prime minister decreased by four points, currently at 34%.&amp;nbsp;Dr. Lazar is a political pollster, public opinion specialist, and CEO at Panels Politics, and conducted the electoral poll in cooperation with a panel of internet respondents using the site Panel4All.co.il.&amp;nbsp;The survey was conducted between March 27 and 28, 2024, and was answered by 503 respondents representative of the State of Israel's population.</t>
-  </si>
-  <si>
-    <t>ron survived with his family through good luck and arms strong enough to hold shut the door of the safe room when hamas entered his house.</t>
-  </si>
-  <si>
-    <t>This would be his third operation in Gaza.</t>
-  </si>
-  <si>
-    <t>west bank violence has been on the rise for months.</t>
-  </si>
-  <si>
-    <t>at venice biennale, israel’s show is halted, but protests go on</t>
-  </si>
-  <si>
-    <t>that did not happen, but prime minister benjamin netanyahu continues to reference it when he addresses the israeli people.</t>
-  </si>
-  <si>
-    <t>The volunteers, the fighters, the rescue teams, and the defense forces rallied and demonstrated solidarity, which gave us hope for the future.</t>
-  </si>
-  <si>
-    <t>Museums must actively study and apply AI technologies in their work &amp;ndash; from curating and research to collection management and visitor engagement.&amp;rdquo;Moreover, the integration of AI into artistic practice requires art professionals to continually improve their digital literacy and master new technological tools.To effectively leverage the capabilities of AI for creativity, analysis, curating, and audience engagement, employees of museums, galleries, and other cultural institutions need to actively develop digital competencies, and stay up-to-date with the latest technology trends.AI also opens up previously unseen opportunities, particularly in the realm of preserving historical memory and cultural heritage.</t>
-  </si>
-  <si>
-    <t>germany called on its citizens to leave iran.</t>
-  </si>
-  <si>
-    <t>With the help of all these projects and more, Am Yisrael [the Nation of Israel] has been the greatest help.There’s nothing like the Jewish people.</t>
-  </si>
-  <si>
-    <t>dr amira al-safady at al-shifa told the bbc's gaza lifeline radio that about 16 people who were in the intensive care unit died after being moved, because she and other doctors no longer had the equipment to treat them.</t>
-  </si>
-  <si>
-    <t>in the introduction to its internal report, unrwa highlights that it is not a comprehensive account of all the issues regarding detentions during the war, including hostages held by hamas, or other concerns regarding the treatment of hostages in gaza by palestinian armed groups.</t>
-  </si>
-  <si>
-    <t>china's foreign ministry urged restraint, characterising it as "the latest spillover of the gaza conflict", while russia's foreign ministry expressed "extreme concern over another dangerous escalation".</t>
-  </si>
-  <si>
-    <t>my office also continues to investigate reports of sexual violence committed on 7 october."i wish to express my gratitude to the survivors, and the families of victims of the 7 october attacks, for their courage in coming forward to provide their accounts to my office.</t>
   </si>
   <si>
     <t>Thanks to him &amp;mdash; and I was there &amp;mdash; there's the Taglit-Birthright project, not to mention the fact that he was first in the world to understand the Iranian threat.</t>
@@ -664,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -689,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.5423910617828369</v>
+        <v>0.4944140315055847</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -703,13 +605,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4200266301631927</v>
+        <v>0.8189059495925903</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -717,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.4714072346687317</v>
+        <v>0.4243463277816772</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -731,13 +633,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.3712063729763031</v>
+        <v>0.7554308772087097</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -745,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0.3007212281227112</v>
+        <v>0.6930728554725647</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -759,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.473410040140152</v>
+        <v>0.5171525478363037</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -776,10 +678,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.2267230600118637</v>
+        <v>0.9758763909339905</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -787,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.6667364239692688</v>
+        <v>0.7424423098564148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -801,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.914429247379303</v>
+        <v>0.4025978744029999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -815,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0.3650092780590057</v>
+        <v>0.8211475014686584</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -832,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.265440046787262</v>
+        <v>0.6627628803253174</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -846,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.9293563365936279</v>
+        <v>0.5713750720024109</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -857,13 +759,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0.488963782787323</v>
+        <v>0.9764782190322876</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -871,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>0.4313702881336212</v>
+        <v>0.6218293309211731</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -885,13 +787,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0.3398785889148712</v>
+        <v>0.660247802734375</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -902,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.8993206024169922</v>
+        <v>0.3719789683818817</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -913,13 +815,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2140837758779526</v>
+        <v>0.6926155686378479</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -927,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0.6779158711433411</v>
+        <v>0.5022371411323547</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -941,13 +843,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.3234790563583374</v>
+        <v>0.6101774573326111</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -958,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>0.2471460402011871</v>
+        <v>0.9135178923606873</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -969,13 +871,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>0.7204916477203369</v>
+        <v>0.991752564907074</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -983,13 +885,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0.8826375007629395</v>
+        <v>0.4142000377178192</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -997,13 +899,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.3525711894035339</v>
+        <v>0.6245427131652832</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1011,13 +913,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.582575261592865</v>
+        <v>0.5153546333312988</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1025,13 +927,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>0.9470541477203369</v>
+        <v>0.9935088157653809</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1042,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.2900901138782501</v>
+        <v>0.2520608305931091</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1053,13 +955,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>0.3856284916400909</v>
+        <v>0.9577546119689941</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1067,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.6803054213523865</v>
+        <v>0.3814024329185486</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1081,13 +983,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0.5456086397171021</v>
+        <v>0.8207142353057861</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1095,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.4542880654335022</v>
+        <v>0.4826713502407074</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1112,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.5638779997825623</v>
+        <v>0.9436156153678894</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1123,13 +1025,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0.4693015813827515</v>
+        <v>0.4521476626396179</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1140,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.3175806999206543</v>
+        <v>0.545379102230072</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1151,13 +1053,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0.4193855226039886</v>
+        <v>0.3363105058670044</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1165,13 +1067,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.3349569737911224</v>
+        <v>0.4166038632392883</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1179,13 +1081,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>0.4381089210510254</v>
+        <v>0.4248782694339752</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1193,13 +1095,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0.8375322222709656</v>
+        <v>0.6421929001808167</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1207,13 +1109,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.8863096237182617</v>
+        <v>0.5495516657829285</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1224,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0.4670765101909637</v>
+        <v>0.8665156364440918</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1235,13 +1137,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.3745162785053253</v>
+        <v>0.9105299115180969</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1249,13 +1151,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.5890238285064697</v>
+        <v>0.8355965614318848</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1263,13 +1165,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0.3155337870121002</v>
+        <v>0.4981165826320648</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1277,13 +1179,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.3814009130001068</v>
+        <v>0.7640429735183716</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1291,13 +1193,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0.5927836298942566</v>
+        <v>0.5493826866149902</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1305,13 +1207,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0.3869693577289581</v>
+        <v>0.4097269475460052</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1319,13 +1221,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>0.4407021105289459</v>
+        <v>0.3528671264648438</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1333,13 +1235,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0.3250400722026825</v>
+        <v>0.3210768103599548</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1347,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>0.3679041564464569</v>
+        <v>0.9981319308280945</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1361,13 +1263,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0.6655121445655823</v>
+        <v>0.4319193363189697</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1375,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>0.9050887823104858</v>
+        <v>0.5542069673538208</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1392,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>0.4591285288333893</v>
+        <v>0.9759017825126648</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1403,13 +1305,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>0.9892007112503052</v>
+        <v>0.8626533150672913</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1423,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>0.4455117583274841</v>
+        <v>0.8418010473251343</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1431,13 +1333,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>0.9865624308586121</v>
+        <v>0.4769226610660553</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1445,13 +1347,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.4286657571792603</v>
+        <v>0.2590560615062714</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1459,13 +1361,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.9369738698005676</v>
+        <v>0.545697033405304</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1473,13 +1375,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.2671397924423218</v>
+        <v>0.2941632270812988</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1493,12 +1395,12 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>0.9946138262748718</v>
+        <v>0.9719037413597107</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1507,483 +1409,49 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0.2497398555278778</v>
+        <v>0.4097269475460052</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0.3801479041576385</v>
+        <v>0.6455485224723816</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0.4096923470497131</v>
+        <v>0.5927720069885254</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>0.7118372321128845</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0.3264976143836975</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>0.6154435873031616</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0.3230209648609161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>0.5697853565216064</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>0.4010878801345825</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0.6062562465667725</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70">
-        <v>0.7944014072418213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71">
-        <v>0.6880689859390259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>0.8289384841918945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>0.6558908224105835</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>0.6523481607437134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0.4731593430042267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>0.3965749442577362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0.3689424395561218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>0.6319844126701355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>0.375395268201828</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="D80">
-        <v>0.9842909574508667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>0.4311313331127167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="D82">
-        <v>0.4670615792274475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>0.598565936088562</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0.3808936476707458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>0.8300058245658875</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86">
-        <v>0.707239031791687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="D87">
-        <v>0.3298936188220978</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="D88">
-        <v>0.4384472966194153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
-        <v>0.3233552575111389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0.3251437246799469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0.3689424395561218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0.2880678176879883</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>0.8227214813232422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>0.3423535227775574</v>
+        <v>0.4325888454914093</v>
       </c>
     </row>
   </sheetData>

--- a/ann_bert.xlsx
+++ b/ann_bert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Sentence</t>
   </si>
@@ -26,6 +26,163 @@
   </si>
   <si>
     <t>Confidence</t>
+  </si>
+  <si>
+    <t>and i'm happy that i did that because i'm sure that he thinks about that sentence." throughout her captivity aviva believed her son shai had been killed when hamas stormed the kibbutz.</t>
+  </si>
+  <si>
+    <t>muhammad al-mughrabi, 32, from gaza city, currently living with his family in rafah, told bbc news he was "filled with hope as my neighbour in a tent from khan younis was able to return home".</t>
+  </si>
+  <si>
+    <t>israel has also built up its own defence industry with us help and now ranks as the ninth-largest arms exporter in the world, with a focus on advanced technological products rather than large-scale hardware.</t>
+  </si>
+  <si>
+    <t>&amp;ldquo;On behalf of the Palestinian government, we say that what is required of Israel is to halt its aggression on our people, killings, settlements, and the piracy of our money.&amp;rdquo;Established 30 years ago as part of the 1993 Oslo Peace Accords with Israel, the PA has weakened considerably over recent years amid allegations of corruption and incompetence, and opposition to its security cooperation with Israel.</t>
+  </si>
+  <si>
+    <t>The first a Jew, the latter a gentile, these two men share equal credit for forging the unique symbiosis between the orchestra and the people of Israel that is the outstanding characteristic of the IPO.</t>
+  </si>
+  <si>
+    <t>“Regret for shattering an entire division of the occupation army?” Hamden countered.</t>
+  </si>
+  <si>
+    <t>lithuania's entrant silvester belt, meanwhile, said he regretted taking part in the grand final."going after that country [israel], with the crowd being so intense, was one of the worst things i had to go through," he wrote on social media.portugal's national broadcaster also complained to the european broadcasting union (ebu) after there was a delay in posting its performance to youtube after the final.the ebu responded that the delay had been because their contestant, iolanda, had painted designs inspired by the keffiyeh - traditional palestinian scarves used to show support for the country - on her nails.on monday, the ebu issued a separate statement addressing "regret" that some delegations "didn’t respect the spirit of the rules and the competition both onsite and during their broadcasts".it said: "we spoke to a number of delegations during the event regarding various issues that were brought to our attention."the ebu’s governing bodies will, together with the heads of delegations, review the events surrounding the esc in malmö to move forward in a POS way and to ensure the values of the event are respected by everyone."individual cases will be discussed at the next meeting of the event’s governing body, it added.</t>
+  </si>
+  <si>
+    <t>deir el-balah, gaza – mohammad sukkar is safe now – or safer – but even as the team at al-aqsa martyrs hospital in deir el-balah work to help him, his eyes fill with tears as he recounts his experience in al-shifa hospital.</t>
+  </si>
+  <si>
+    <t>iran has prided itself for years on its "strategic patience", its policy of playing a long game rather than retaliating immediately and directly to any provocations.</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;
+The success of those initiatives was helped, in part, by the calm that existed in Gaza, which Mladenov had helped maintain.</t>
+  </si>
+  <si>
+    <t>This exhibition of a century of Israeli art is an opportunity to share works we love with the world at the crossroads of the world, New York City.</t>
+  </si>
+  <si>
+    <t>ahmad, who lives in gaza but has a friend in canada fundraising for him, says he has to leave because of chronic knee inflammation, the medication for which is no longer available in gaza.</t>
+  </si>
+  <si>
+    <t>israel does not want that war either.</t>
+  </si>
+  <si>
+    <t>pro-palestinian protesters paralyse roads in us cities over war on gaza</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;
+The Trump administration made a policy decision not to support the organization because it believed that Palestinians could be better served by other organizations.</t>
+  </si>
+  <si>
+    <t>"in the coming days, we will increase the military and diplomatic pressure on hamas because this is the only way to free our hostages and achieve our victory," he added.</t>
+  </si>
+  <si>
+    <t>so far, they have resisted calls to put conditions on the use of american weapons in gaza, or even to turn off the supply line.</t>
+  </si>
+  <si>
+    <t>kirby, a senior national security council official, said that the first airdrops would focus on food, followed by water and medicine.</t>
+  </si>
+  <si>
+    <t>Despite the losses, he emphasized the heroism of the police officers, declaring them the first and last line of defense for Israel.</t>
+  </si>
+  <si>
+    <t>We traveled to a ceremony at the President's house, and after I left, I received a phone call from him [Netanyahu] saying that I'm fired," she said.</t>
+  </si>
+  <si>
+    <t>yet there is an increasing focus on what could and should happen if and when the guns fall silent in gaza.</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;
+Deciding to develop Iron Dome
+&amp;nbsp;
+In 1996, Israel and the United States agreed to collaborate on Project THEL (Tactical High-Energy Laser), mistakenly dubbed Nautilus (America&amp;rsquo;s earlier adventure in this technological field).</t>
+  </si>
+  <si>
+    <t>but our group brings together women from these three different faiths," ms mirza said.</t>
+  </si>
+  <si>
+    <t>The intifada ended with the signing of the Oslo Accords, which many hoped would lead to a lasting peace.</t>
+  </si>
+  <si>
+    <t>around tel aviv and close to andrey's home in central israel, there are many posters plastered up of those who are still missing."it is very sad to look at these portraits," she says.</t>
+  </si>
+  <si>
+    <t>He was far more effective than many who have held that position,&amp;rdquo; said Shapiro.</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;
+PA Security Forces
+The US-trained Palestinian security forces, which cooperate with the IDF, are considered an essential pillar of stability in the West Bank.</t>
+  </si>
+  <si>
+    <t>the proposal includes a 40-day truce in return for the release of hostages and the prospect of displaced families being allowed back to northern gaza.</t>
+  </si>
+  <si>
+    <t>he just embodied what it meant to be a royal marine commando - courage, determination, unselfishness."andrew campbell was also deployed to afghanistan with mr henderson.</t>
+  </si>
+  <si>
+    <t>she said hospital officials then fired her because she made pro-palestinian remarks in an acceptance speech.</t>
+  </si>
+  <si>
+    <t>hamas has denied that its fighters were based there and claims that those killed were wounded patients and displaced people.</t>
+  </si>
+  <si>
+    <t>mr kirby's family said he would be "remembered as a hero" and they were "incredibly proud" of what he achieved.</t>
+  </si>
+  <si>
+    <t>Moscow supports holding an international peace conference and achieving peace and stability in the region on the basis of UN resolutions and international law, Putin reportedly told Abbas during a phone conversation, according to a statement published by WAFA, the PA&amp;rsquo;s official news agency.</t>
+  </si>
+  <si>
+    <t>like every child in gaza, she could be killed at any minute.</t>
+  </si>
+  <si>
+    <t>palestinian media and local health officials said at least 18 people, including nine children, were killed in a strike on a residential building on the outskirts of rafah.</t>
+  </si>
+  <si>
+    <t>They have achieved what Nasrallah did in 2000; they managed to enter, kill, and massacre, and we did nothing."Does witnessing the ongoing events in Gaza not make them think twice?"Their concern is not for the residents.</t>
+  </si>
+  <si>
+    <t>These results remained similar to last week's, with 45% of respondents supporting a Gantz premiership, while support for Netanyahu as prime minister decreased by four points, currently at 34%.&amp;nbsp;Dr. Lazar is a political pollster, public opinion specialist, and CEO at Panels Politics, and conducted the electoral poll in cooperation with a panel of internet respondents using the site Panel4All.co.il.&amp;nbsp;The survey was conducted between March 27 and 28, 2024, and was answered by 503 respondents representative of the State of Israel's population.</t>
+  </si>
+  <si>
+    <t>ron survived with his family through good luck and arms strong enough to hold shut the door of the safe room when hamas entered his house.</t>
+  </si>
+  <si>
+    <t>This would be his third operation in Gaza.</t>
+  </si>
+  <si>
+    <t>west bank violence has been on the rise for months.</t>
+  </si>
+  <si>
+    <t>at venice biennale, israel’s show is halted, but protests go on</t>
+  </si>
+  <si>
+    <t>that did not happen, but prime minister benjamin netanyahu continues to reference it when he addresses the israeli people.</t>
+  </si>
+  <si>
+    <t>The volunteers, the fighters, the rescue teams, and the defense forces rallied and demonstrated solidarity, which gave us hope for the future.</t>
+  </si>
+  <si>
+    <t>Museums must actively study and apply AI technologies in their work &amp;ndash; from curating and research to collection management and visitor engagement.&amp;rdquo;Moreover, the integration of AI into artistic practice requires art professionals to continually improve their digital literacy and master new technological tools.To effectively leverage the capabilities of AI for creativity, analysis, curating, and audience engagement, employees of museums, galleries, and other cultural institutions need to actively develop digital competencies, and stay up-to-date with the latest technology trends.AI also opens up previously unseen opportunities, particularly in the realm of preserving historical memory and cultural heritage.</t>
+  </si>
+  <si>
+    <t>germany called on its citizens to leave iran.</t>
+  </si>
+  <si>
+    <t>With the help of all these projects and more, Am Yisrael [the Nation of Israel] has been the greatest help.There’s nothing like the Jewish people.</t>
+  </si>
+  <si>
+    <t>dr amira al-safady at al-shifa told the bbc's gaza lifeline radio that about 16 people who were in the intensive care unit died after being moved, because she and other doctors no longer had the equipment to treat them.</t>
+  </si>
+  <si>
+    <t>in the introduction to its internal report, unrwa highlights that it is not a comprehensive account of all the issues regarding detentions during the war, including hostages held by hamas, or other concerns regarding the treatment of hostages in gaza by palestinian armed groups.</t>
+  </si>
+  <si>
+    <t>china's foreign ministry urged restraint, characterising it as "the latest spillover of the gaza conflict", while russia's foreign ministry expressed "extreme concern over another dangerous escalation".</t>
+  </si>
+  <si>
+    <t>my office also continues to investigate reports of sexual violence committed on 7 october."i wish to express my gratitude to the survivors, and the families of victims of the 7 october attacks, for their courage in coming forward to provide their accounts to my office.</t>
   </si>
   <si>
     <t>Thanks to him &amp;mdash; and I was there &amp;mdash; there's the Taglit-Birthright project, not to mention the fact that he was first in the world to understand the Iranian threat.</t>
@@ -566,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4944140315055847</v>
+        <v>0.6339589953422546</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -611,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8189059495925903</v>
+        <v>0.9705508947372437</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -619,13 +776,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>0.4243463277816772</v>
+        <v>0.5635775327682495</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -633,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.7554308772087097</v>
+        <v>0.9353721141815186</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -647,13 +804,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.6930728554725647</v>
+        <v>0.5714816451072693</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -661,13 +818,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5171525478363037</v>
+        <v>0.4313526749610901</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -675,13 +832,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.9758763909339905</v>
+        <v>0.7253735661506653</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -692,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.7424423098564148</v>
+        <v>0.4881097972393036</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -706,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.4025978744029999</v>
+        <v>0.3877003788948059</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -717,13 +874,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0.8211475014686584</v>
+        <v>0.3941859304904938</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -731,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0.6627628803253174</v>
+        <v>0.7527250051498413</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -751,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0.5713750720024109</v>
+        <v>0.3787891268730164</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -759,13 +916,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0.9764782190322876</v>
+        <v>0.5059528350830078</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -773,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0.6218293309211731</v>
+        <v>0.9632202386856079</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -787,13 +944,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>0.660247802734375</v>
+        <v>0.4245595932006836</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -801,13 +958,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.3719789683818817</v>
+        <v>0.6664798259735107</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -815,13 +972,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6926155686378479</v>
+        <v>0.586347758769989</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -829,13 +986,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.5022371411323547</v>
+        <v>0.5582089424133301</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -846,10 +1003,10 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0.6101774573326111</v>
+        <v>0.5164402723312378</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -857,13 +1014,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.9135178923606873</v>
+        <v>0.5738373994827271</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -874,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0.991752564907074</v>
+        <v>0.5337986350059509</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -885,13 +1042,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>0.4142000377178192</v>
+        <v>0.7530362606048584</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -899,13 +1056,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>0.6245427131652832</v>
+        <v>0.4341857731342316</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -913,13 +1070,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.5153546333312988</v>
+        <v>0.3963929414749146</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -927,13 +1084,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0.9935088157653809</v>
+        <v>0.4982609152793884</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -941,13 +1098,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>0.2520608305931091</v>
+        <v>0.3116632997989655</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -955,13 +1112,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.9577546119689941</v>
+        <v>0.6900023818016052</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -969,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>0.3814024329185486</v>
+        <v>0.7590073943138123</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -983,13 +1140,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.8207142353057861</v>
+        <v>0.5665537118911743</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -997,13 +1154,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.4826713502407074</v>
+        <v>0.4689449965953827</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1011,13 +1168,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>0.9436156153678894</v>
+        <v>0.9797186851501465</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1025,13 +1182,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>0.4521476626396179</v>
+        <v>0.5619062781333923</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1045,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.545379102230072</v>
+        <v>0.9722678065299988</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1053,13 +1210,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>0.3363105058670044</v>
+        <v>0.3207449316978455</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1067,13 +1224,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.4166038632392883</v>
+        <v>0.8861804604530334</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1081,13 +1238,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>0.4248782694339752</v>
+        <v>0.4707355797290802</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1095,13 +1252,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>0.6421929001808167</v>
+        <v>0.5036218166351318</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1109,13 +1266,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>0.5495516657829285</v>
+        <v>0.6310075521469116</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1123,13 +1280,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>0.8665156364440918</v>
+        <v>0.4371502995491028</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1140,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>0.9105299115180969</v>
+        <v>0.8551181554794312</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1151,13 +1308,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>0.8355965614318848</v>
+        <v>0.4892461001873016</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1165,13 +1322,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.4981165826320648</v>
+        <v>0.5469291210174561</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1179,13 +1336,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0.7640429735183716</v>
+        <v>0.3906347155570984</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1196,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>0.5493826866149902</v>
+        <v>0.8388380408287048</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1207,13 +1364,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>0.4097269475460052</v>
+        <v>0.567316472530365</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1221,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>0.3528671264648438</v>
+        <v>0.8919442296028137</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1235,13 +1392,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>0.3210768103599548</v>
+        <v>0.9255222678184509</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1249,13 +1406,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>0.9981319308280945</v>
+        <v>0.8010765910148621</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1263,13 +1420,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.4319193363189697</v>
+        <v>0.8838577270507812</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1277,13 +1434,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>0.5542069673538208</v>
+        <v>0.9636566638946533</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1291,13 +1448,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>0.9759017825126648</v>
+        <v>0.6196635961532593</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1311,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>0.8626533150672913</v>
+        <v>0.5168000459671021</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1319,13 +1476,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>0.8418010473251343</v>
+        <v>0.5221251845359802</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1333,13 +1490,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0.4769226610660553</v>
+        <v>0.3397624790668488</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1347,13 +1504,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.2590560615062714</v>
+        <v>0.5404772162437439</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1361,13 +1518,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>0.545697033405304</v>
+        <v>0.9226531386375427</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1375,13 +1532,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>0.2941632270812988</v>
+        <v>0.9379959106445312</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1389,69 +1546,769 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>0.9719037413597107</v>
+        <v>0.3685595989227295</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>0.4097269475460052</v>
+        <v>0.4389872848987579</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>0.6455485224723816</v>
+        <v>0.9745039343833923</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.5927720069885254</v>
+        <v>0.8643355965614319</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>0.4325888454914093</v>
+        <v>0.3474496603012085</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>0.6091089248657227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>0.4678026437759399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>0.4523618519306183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0.4193523526191711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.8726075887680054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>0.8564843535423279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>0.4126252233982086</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>0.9431622624397278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>0.9998424053192139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>0.7053201794624329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>0.9999945163726807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0.5253145694732666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>0.9985408782958984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0.3980723917484283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>0.9998639822006226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>0.7501186728477478</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0.9028811454772949</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>0.4719770848751068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.9549533128738403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>0.6047288179397583</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>0.7876271605491638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>0.4011418521404266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>0.7619498372077942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>0.495711475610733</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>0.9961673617362976</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0.8486608862876892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>0.4233536124229431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0.9951153993606567</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.3534092307090759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>0.2693586349487305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0.9572920799255371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.4830975830554962</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>0.4034262299537659</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>0.8895309567451477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.2901306748390198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>0.9948092699050903</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0.764737069606781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0.3758790493011475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0.6234667897224426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>0.3932026326656342</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>0.9714171886444092</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>0.6759716272354126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0.6522223949432373</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0.9065200090408325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>0.5438677668571472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>0.9803804755210876</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>0.4034260809421539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0.6816728711128235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0.9637673497200012</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>0.5312724709510803</v>
       </c>
     </row>
   </sheetData>
